--- a/Backend/Model Metrics/classification_report_rfc_CAP2_rrt.xlsx
+++ b/Backend/Model Metrics/classification_report_rfc_CAP2_rrt.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9936708860759493</v>
+        <v>0.9878048780487805</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9048991354466859</v>
+        <v>0.9014308426073132</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9472096530920061</v>
+        <v>0.942643391521197</v>
       </c>
       <c r="E2" t="n">
-        <v>347</v>
+        <v>629</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.07462686567164178</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05405405405405406</v>
+        <v>0.1265822784810126</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9</v>
+        <v>0.8923556942277691</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9</v>
+        <v>0.8923556942277691</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9</v>
+        <v>0.8923556942277691</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9</v>
+        <v>0.8923556942277691</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5115413253909158</v>
+        <v>0.5312158718602111</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6191162343900096</v>
+        <v>0.65904875463699</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5006318535730301</v>
+        <v>0.5346128350011048</v>
       </c>
       <c r="E5" t="n">
-        <v>350</v>
+        <v>641</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9854058078927773</v>
+        <v>0.9707095018420322</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9</v>
+        <v>0.8923556942277691</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9395540336716809</v>
+        <v>0.9273661163940795</v>
       </c>
       <c r="E6" t="n">
-        <v>350</v>
+        <v>641</v>
       </c>
     </row>
   </sheetData>
